--- a/biology/Botanique/Jardin_franco-allemand_de_Sarrebruck/Jardin_franco-allemand_de_Sarrebruck.xlsx
+++ b/biology/Botanique/Jardin_franco-allemand_de_Sarrebruck/Jardin_franco-allemand_de_Sarrebruck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin franco-allemand de Sarrebruck (en allemand : der Deutsch-Französische Garten) est un jardin et un parc de loisirs doté de plusieurs attractions, fondé dans le cadre du rapprochement franco-allemand et plus particulièrement dans le cadre de l’apaisement nécessaire après le référendum d’autodétermination de la Sarre de 1955 (où 67,7% des Sarrois ont voté pour leur rattachement à l’Allemagne).
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans la banlieue sud-ouest de Sarrebruck près du passage frontalier franco-allemand de la Brême d'Or. Il s'étend sur une superficie d'environ 50 hectares et peut être atteint en une dizaine de minutes en voiture depuis le centre de Sarrebruck ou depuis Forbach/Stiring-Wendel. Le parc est accessible en voiture via la Route européenne 50, qui est formée du côté allemand par l'autoroute Bundesautobahn 6 et du côté français par l’autoroute A320, qui se raccorde à l’autoroute A4.
 </t>
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine, le jardin franco-allemand d'aujourd'hui était un champ et un pré en lisière de forêt à proximité de Sarrebruck. Au XIXe siècle, il a été transformé en parc arboré et est devenu un lieu d'excursion populaire pour les habitants de Sarrebruck. Au cours de la guerre franco-allemande de 1870, la région a fait partie du champ de bataille de la bataille de Forbach-Spicheren du 6 août 1870. En 1890, une baignade en plein air (Deutschmühlenbad) a été installé dans la partie nord du parc. Dans les années 1900, le parc a été baptisé « Parc de l’empereur Guillaume » (Kaiser-Wilhelm-Park) et a principalement été utilisé pour entretenir la mémoire de la victoire sur la France[1]. La Première Guerre mondiale n’a pas directement affecté la zone si ce n’est qu’elle s’est de nouveau retrouvée frontalière à partir de 1919 à la suite de la perte de Alsace-Lorraine par l’Allemagne. Au cours de la seconde Guerre mondiale, le parc a joué un rôle militaire important. Les troupes allemandes y ont construit des fortifications défensives dès 1935, en vis-à-vis de la ligne Maginot, dans le cadre de la construction d’une ligne de défense continue le long des frontières ouest de l’Allemagne, dite « Westwall » (« mur occidental ») en allemand et « Ligne Siegfried » en français. 18 de ces bâtiments (bunkers et obstacles antichars) sont encore visibles aujourd'hui. À partir de 1932, un zoo avait été installé dans la partie sud autour de l’« étang du moulin allemand » (Deutschmühlenbad), avec des rochers artificiels et de grands abris pour les animaux, mais il a dû être abandonné à l'évacuation de Sarrebruck en 1939. À cette date, les grands animaux ont été abattus par la Wehrmacht.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, le jardin franco-allemand d'aujourd'hui était un champ et un pré en lisière de forêt à proximité de Sarrebruck. Au XIXe siècle, il a été transformé en parc arboré et est devenu un lieu d'excursion populaire pour les habitants de Sarrebruck. Au cours de la guerre franco-allemande de 1870, la région a fait partie du champ de bataille de la bataille de Forbach-Spicheren du 6 août 1870. En 1890, une baignade en plein air (Deutschmühlenbad) a été installé dans la partie nord du parc. Dans les années 1900, le parc a été baptisé « Parc de l’empereur Guillaume » (Kaiser-Wilhelm-Park) et a principalement été utilisé pour entretenir la mémoire de la victoire sur la France. La Première Guerre mondiale n’a pas directement affecté la zone si ce n’est qu’elle s’est de nouveau retrouvée frontalière à partir de 1919 à la suite de la perte de Alsace-Lorraine par l’Allemagne. Au cours de la seconde Guerre mondiale, le parc a joué un rôle militaire important. Les troupes allemandes y ont construit des fortifications défensives dès 1935, en vis-à-vis de la ligne Maginot, dans le cadre de la construction d’une ligne de défense continue le long des frontières ouest de l’Allemagne, dite « Westwall » (« mur occidental ») en allemand et « Ligne Siegfried » en français. 18 de ces bâtiments (bunkers et obstacles antichars) sont encore visibles aujourd'hui. À partir de 1932, un zoo avait été installé dans la partie sud autour de l’« étang du moulin allemand » (Deutschmühlenbad), avec des rochers artificiels et de grands abris pour les animaux, mais il a dû être abandonné à l'évacuation de Sarrebruck en 1939. À cette date, les grands animaux ont été abattus par la Wehrmacht.
 Après la guerre, la Sarre a été sous le contrôle d’un gouvernement militaire français jusqu'à la fin de 1947, puis a été un État autonome jusqu'en 1956. En conséquence du référendum de 1955, la Sarre a été rattachée à la République fédérale d'Allemagne sur le plan institutionnel le 1er janvier 1957 et sur le plan économique le 6 juillet 1959. Ce vote, cependant, avait conduit à plusieurs reprises à des tensions entre l'Allemagne et la France. Pour désamorcer la situation, dans le cadre de leurs négociations bilatérales, les gouvernements allemand et français ont décidé de réaliser une exposition horticole commune mettant en valeur le savoir-faire des deux pays. Le jardin, conçu conjointement par un architecte paysagiste allemand et un français, se voulait donc un symbole de l'amitié souhaitée entre la France et la jeune République fédérale.
 Le 23 avril 1960, ce premier et unique « jardin franco-allemand » fut inauguré conjointement par le chancelier allemand Konrad Adenauer et par le premier ministre français Michel Debré. Les expositions horticoles n’ayant plus eu lieu à Sarrebruck les années suivantes, le jardin a été de plus en plus adopté par la population des deux côtés de la frontière comme un centre de loisirs et un lieu pour les grandes festivités.
 Aujourd'hui, le jardin est considéré comme un bien culturel des années d'après-guerre et un témoin d'une tradition horticole qui remonte jusqu'au milieu du XVIe siècle. Mis à part de rares exceptions en cas d’événements spéciaux, l'entrée du jardin franco-allemand est gratuite.
